--- a/data_filter30_svdimpute/CHWH.xlsx
+++ b/data_filter30_svdimpute/CHWH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\COVID-19-Prediction\data_clx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\gitCOVID\COVID-19-Prediction\data_filter30_svdimpute\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6468837D-3B43-4777-9751-11E072C198A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B95ABA-CE4B-493B-BA8C-31BACADC75CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,13 +554,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP117"/>
+  <dimension ref="A1:AP148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1:AP1048576"/>
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -15536,6 +15539,3974 @@
       </c>
       <c r="AP117">
         <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2501799078</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="T118">
+        <v>50</v>
+      </c>
+      <c r="U118">
+        <v>2.61E-12</v>
+      </c>
+      <c r="V118">
+        <v>9.2499999999999997E-14</v>
+      </c>
+      <c r="W118">
+        <v>3.56E-13</v>
+      </c>
+      <c r="X118">
+        <v>58</v>
+      </c>
+      <c r="Y118">
+        <v>35</v>
+      </c>
+      <c r="Z118">
+        <v>38.4</v>
+      </c>
+      <c r="AA118">
+        <v>10.1</v>
+      </c>
+      <c r="AB118">
+        <v>76</v>
+      </c>
+      <c r="AC118">
+        <v>209</v>
+      </c>
+      <c r="AD118">
+        <v>3.9</v>
+      </c>
+      <c r="AE118">
+        <v>51</v>
+      </c>
+      <c r="AF118">
+        <v>188</v>
+      </c>
+      <c r="AG118">
+        <v>4.55</v>
+      </c>
+      <c r="AH118">
+        <v>1.54</v>
+      </c>
+      <c r="AI118">
+        <v>123</v>
+      </c>
+      <c r="AJ118">
+        <v>226</v>
+      </c>
+      <c r="AK118">
+        <v>14.5</v>
+      </c>
+      <c r="AL118">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AM118">
+        <v>0.22</v>
+      </c>
+      <c r="AN118">
+        <v>2</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2501798563</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>3</v>
+      </c>
+      <c r="T119">
+        <v>78</v>
+      </c>
+      <c r="U119">
+        <v>4.46E-12</v>
+      </c>
+      <c r="V119">
+        <v>1.9699999999999999E-13</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>40</v>
+      </c>
+      <c r="Y119">
+        <v>49</v>
+      </c>
+      <c r="Z119">
+        <v>31.9</v>
+      </c>
+      <c r="AA119">
+        <v>14.4</v>
+      </c>
+      <c r="AB119">
+        <v>128</v>
+      </c>
+      <c r="AC119">
+        <v>302</v>
+      </c>
+      <c r="AD119">
+        <v>8.4</v>
+      </c>
+      <c r="AE119">
+        <v>115</v>
+      </c>
+      <c r="AF119">
+        <v>481</v>
+      </c>
+      <c r="AG119">
+        <v>7.25</v>
+      </c>
+      <c r="AH119">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AI119">
+        <v>128</v>
+      </c>
+      <c r="AJ119">
+        <v>226</v>
+      </c>
+      <c r="AK119">
+        <v>13.8</v>
+      </c>
+      <c r="AL119">
+        <v>52.3</v>
+      </c>
+      <c r="AM119">
+        <v>0.49</v>
+      </c>
+      <c r="AN119">
+        <v>201.6</v>
+      </c>
+      <c r="AO119">
+        <v>0.12</v>
+      </c>
+      <c r="AP119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2501786586</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>2</v>
+      </c>
+      <c r="T120">
+        <v>72</v>
+      </c>
+      <c r="U120">
+        <v>4.6299999999999986E-12</v>
+      </c>
+      <c r="V120">
+        <v>1.6E-13</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>20</v>
+      </c>
+      <c r="Y120">
+        <v>21</v>
+      </c>
+      <c r="Z120">
+        <v>24</v>
+      </c>
+      <c r="AA120">
+        <v>15.3</v>
+      </c>
+      <c r="AB120">
+        <v>94</v>
+      </c>
+      <c r="AC120">
+        <v>424</v>
+      </c>
+      <c r="AD120">
+        <v>9.4</v>
+      </c>
+      <c r="AE120">
+        <v>80</v>
+      </c>
+      <c r="AF120">
+        <v>378</v>
+      </c>
+      <c r="AG120">
+        <v>9.35</v>
+      </c>
+      <c r="AH120">
+        <v>0.68</v>
+      </c>
+      <c r="AI120">
+        <v>108</v>
+      </c>
+      <c r="AJ120">
+        <v>279</v>
+      </c>
+      <c r="AK120">
+        <v>14.6</v>
+      </c>
+      <c r="AL120">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AM120">
+        <v>4.68</v>
+      </c>
+      <c r="AN120">
+        <v>258</v>
+      </c>
+      <c r="AO120">
+        <v>0.33</v>
+      </c>
+      <c r="AP120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2501786349</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>2</v>
+      </c>
+      <c r="T121">
+        <v>51</v>
+      </c>
+      <c r="U121">
+        <v>3.5699999999999999E-12</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>34</v>
+      </c>
+      <c r="Y121">
+        <v>129</v>
+      </c>
+      <c r="Z121">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AA121">
+        <v>21.2</v>
+      </c>
+      <c r="AB121">
+        <v>206</v>
+      </c>
+      <c r="AC121">
+        <v>364</v>
+      </c>
+      <c r="AD121">
+        <v>7.3</v>
+      </c>
+      <c r="AE121">
+        <v>115</v>
+      </c>
+      <c r="AF121">
+        <v>266</v>
+      </c>
+      <c r="AG121">
+        <v>2.39</v>
+      </c>
+      <c r="AH121">
+        <v>0.43</v>
+      </c>
+      <c r="AI121">
+        <v>80</v>
+      </c>
+      <c r="AJ121">
+        <v>76</v>
+      </c>
+      <c r="AK121">
+        <v>15.9</v>
+      </c>
+      <c r="AL121">
+        <v>43.9</v>
+      </c>
+      <c r="AM121">
+        <v>9.89</v>
+      </c>
+      <c r="AN121">
+        <v>17.7</v>
+      </c>
+      <c r="AO121">
+        <v>0.41</v>
+      </c>
+      <c r="AP121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2501785074</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>2</v>
+      </c>
+      <c r="T122">
+        <v>62</v>
+      </c>
+      <c r="U122">
+        <v>2.46E-12</v>
+      </c>
+      <c r="V122">
+        <v>8.4399999999999999E-14</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>9</v>
+      </c>
+      <c r="Y122">
+        <v>32</v>
+      </c>
+      <c r="Z122">
+        <v>36.1</v>
+      </c>
+      <c r="AA122">
+        <v>6.8</v>
+      </c>
+      <c r="AB122">
+        <v>26</v>
+      </c>
+      <c r="AC122">
+        <v>251</v>
+      </c>
+      <c r="AD122">
+        <v>3.7</v>
+      </c>
+      <c r="AE122">
+        <v>45</v>
+      </c>
+      <c r="AF122">
+        <v>140</v>
+      </c>
+      <c r="AG122">
+        <v>4.38</v>
+      </c>
+      <c r="AH122">
+        <v>0.48</v>
+      </c>
+      <c r="AI122">
+        <v>102</v>
+      </c>
+      <c r="AJ122">
+        <v>139</v>
+      </c>
+      <c r="AK122">
+        <v>13.5</v>
+      </c>
+      <c r="AL122">
+        <v>56.4</v>
+      </c>
+      <c r="AM122">
+        <v>3.71</v>
+      </c>
+      <c r="AN122">
+        <v>196</v>
+      </c>
+      <c r="AO122">
+        <v>0.11</v>
+      </c>
+      <c r="AP122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2501777439</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123">
+        <v>44</v>
+      </c>
+      <c r="U123">
+        <v>3.22E-12</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>9</v>
+      </c>
+      <c r="Y123">
+        <v>38</v>
+      </c>
+      <c r="Z123">
+        <v>30.1</v>
+      </c>
+      <c r="AA123">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AB123">
+        <v>9</v>
+      </c>
+      <c r="AC123">
+        <v>401</v>
+      </c>
+      <c r="AD123">
+        <v>2.4</v>
+      </c>
+      <c r="AE123">
+        <v>61</v>
+      </c>
+      <c r="AF123">
+        <v>164</v>
+      </c>
+      <c r="AG123">
+        <v>7.22</v>
+      </c>
+      <c r="AH123">
+        <v>0.54</v>
+      </c>
+      <c r="AI123">
+        <v>88</v>
+      </c>
+      <c r="AJ123">
+        <v>128</v>
+      </c>
+      <c r="AK123">
+        <v>13.4</v>
+      </c>
+      <c r="AL123">
+        <v>35.766298880000001</v>
+      </c>
+      <c r="AM123">
+        <v>1.6</v>
+      </c>
+      <c r="AN123">
+        <v>185.1</v>
+      </c>
+      <c r="AO123">
+        <v>0.39</v>
+      </c>
+      <c r="AP123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2501777426</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>1</v>
+      </c>
+      <c r="T124">
+        <v>65</v>
+      </c>
+      <c r="U124">
+        <v>3.22E-12</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>11</v>
+      </c>
+      <c r="Y124">
+        <v>27</v>
+      </c>
+      <c r="Z124">
+        <v>29</v>
+      </c>
+      <c r="AA124">
+        <v>9.6</v>
+      </c>
+      <c r="AB124">
+        <v>11</v>
+      </c>
+      <c r="AC124">
+        <v>407</v>
+      </c>
+      <c r="AD124">
+        <v>3.4</v>
+      </c>
+      <c r="AE124">
+        <v>54</v>
+      </c>
+      <c r="AF124">
+        <v>145</v>
+      </c>
+      <c r="AG124">
+        <v>5.43</v>
+      </c>
+      <c r="AH124">
+        <v>0.39</v>
+      </c>
+      <c r="AI124">
+        <v>125</v>
+      </c>
+      <c r="AJ124">
+        <v>147</v>
+      </c>
+      <c r="AK124">
+        <v>14.4</v>
+      </c>
+      <c r="AL124">
+        <v>42.6</v>
+      </c>
+      <c r="AM124">
+        <v>1.08</v>
+      </c>
+      <c r="AN124">
+        <v>67.2</v>
+      </c>
+      <c r="AO124">
+        <v>0.06</v>
+      </c>
+      <c r="AP124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2501777313</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
+      </c>
+      <c r="T125">
+        <v>47</v>
+      </c>
+      <c r="U125">
+        <v>4.7800000000000002E-12</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>120</v>
+      </c>
+      <c r="Y125">
+        <v>133</v>
+      </c>
+      <c r="Z125">
+        <v>36.9</v>
+      </c>
+      <c r="AA125">
+        <v>7.8</v>
+      </c>
+      <c r="AB125">
+        <v>24</v>
+      </c>
+      <c r="AC125">
+        <v>625</v>
+      </c>
+      <c r="AD125">
+        <v>4.8</v>
+      </c>
+      <c r="AE125">
+        <v>80</v>
+      </c>
+      <c r="AF125">
+        <v>189</v>
+      </c>
+      <c r="AG125">
+        <v>15.92</v>
+      </c>
+      <c r="AH125">
+        <v>0.3</v>
+      </c>
+      <c r="AI125">
+        <v>112</v>
+      </c>
+      <c r="AJ125">
+        <v>217</v>
+      </c>
+      <c r="AK125">
+        <v>14.6</v>
+      </c>
+      <c r="AL125">
+        <v>33.5</v>
+      </c>
+      <c r="AM125">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AN125">
+        <v>267.5</v>
+      </c>
+      <c r="AO125">
+        <v>0.49</v>
+      </c>
+      <c r="AP125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2501777138</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>66</v>
+      </c>
+      <c r="U126">
+        <v>3.5399999999999999E-12</v>
+      </c>
+      <c r="V126">
+        <v>5.6800000000000002E-14</v>
+      </c>
+      <c r="W126">
+        <v>6.5799999999999995E-14</v>
+      </c>
+      <c r="X126">
+        <v>32.553031560000001</v>
+      </c>
+      <c r="Y126">
+        <v>37.13933609</v>
+      </c>
+      <c r="Z126">
+        <v>36.493201910000003</v>
+      </c>
+      <c r="AA126">
+        <v>11.8630309</v>
+      </c>
+      <c r="AB126">
+        <v>60.876134159999999</v>
+      </c>
+      <c r="AC126">
+        <v>319.62211029999997</v>
+      </c>
+      <c r="AD126">
+        <v>5.7100725870000009</v>
+      </c>
+      <c r="AE126">
+        <v>75.768547359999999</v>
+      </c>
+      <c r="AF126">
+        <v>285.04953460000002</v>
+      </c>
+      <c r="AG126">
+        <v>6.5545807720000004</v>
+      </c>
+      <c r="AH126">
+        <v>1.0055274320000001</v>
+      </c>
+      <c r="AI126">
+        <v>114.2746862</v>
+      </c>
+      <c r="AJ126">
+        <v>208.1183475</v>
+      </c>
+      <c r="AK126">
+        <v>14.479548530000001</v>
+      </c>
+      <c r="AL126">
+        <v>42.552701970000001</v>
+      </c>
+      <c r="AM126">
+        <v>2.166947376</v>
+      </c>
+      <c r="AN126">
+        <v>78.655233019999997</v>
+      </c>
+      <c r="AO126">
+        <v>0.17166229499999999</v>
+      </c>
+      <c r="AP126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2501777135</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
+        <v>58</v>
+      </c>
+      <c r="U127">
+        <v>1.8399999999999998E-12</v>
+      </c>
+      <c r="V127">
+        <v>1.4900000000000002E-14</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>8</v>
+      </c>
+      <c r="Y127">
+        <v>10</v>
+      </c>
+      <c r="Z127">
+        <v>43.6</v>
+      </c>
+      <c r="AA127">
+        <v>11.8</v>
+      </c>
+      <c r="AB127">
+        <v>88</v>
+      </c>
+      <c r="AC127">
+        <v>112</v>
+      </c>
+      <c r="AD127">
+        <v>3.2</v>
+      </c>
+      <c r="AE127">
+        <v>42</v>
+      </c>
+      <c r="AF127">
+        <v>222</v>
+      </c>
+      <c r="AG127">
+        <v>5.21</v>
+      </c>
+      <c r="AH127">
+        <v>0.65</v>
+      </c>
+      <c r="AI127">
+        <v>61</v>
+      </c>
+      <c r="AJ127">
+        <v>42</v>
+      </c>
+      <c r="AK127">
+        <v>14.3</v>
+      </c>
+      <c r="AL127">
+        <v>42.8</v>
+      </c>
+      <c r="AM127">
+        <v>0.3</v>
+      </c>
+      <c r="AN127">
+        <v>47.6</v>
+      </c>
+      <c r="AO127">
+        <v>0.21</v>
+      </c>
+      <c r="AP127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2501777126</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>1</v>
+      </c>
+      <c r="T128">
+        <v>51</v>
+      </c>
+      <c r="U128">
+        <v>2.9200000000000001E-12</v>
+      </c>
+      <c r="V128">
+        <v>1.31E-13</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>27</v>
+      </c>
+      <c r="Y128">
+        <v>15</v>
+      </c>
+      <c r="Z128">
+        <v>41.6</v>
+      </c>
+      <c r="AA128">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AB128">
+        <v>39</v>
+      </c>
+      <c r="AC128">
+        <v>112</v>
+      </c>
+      <c r="AD128">
+        <v>10</v>
+      </c>
+      <c r="AE128">
+        <v>164</v>
+      </c>
+      <c r="AF128">
+        <v>470</v>
+      </c>
+      <c r="AG128">
+        <v>5.46</v>
+      </c>
+      <c r="AH128">
+        <v>1.78</v>
+      </c>
+      <c r="AI128">
+        <v>69</v>
+      </c>
+      <c r="AJ128">
+        <v>25</v>
+      </c>
+      <c r="AK128">
+        <v>15.5</v>
+      </c>
+      <c r="AL128">
+        <v>54.1</v>
+      </c>
+      <c r="AM128">
+        <v>0.48</v>
+      </c>
+      <c r="AN128">
+        <v>100.9</v>
+      </c>
+      <c r="AO128">
+        <v>0.45</v>
+      </c>
+      <c r="AP128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2501776970</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
+        <v>63</v>
+      </c>
+      <c r="U129">
+        <v>3.3500000000000001E-12</v>
+      </c>
+      <c r="V129">
+        <v>8.4500000000000006E-14</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>40</v>
+      </c>
+      <c r="Y129">
+        <v>28</v>
+      </c>
+      <c r="Z129">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AA129">
+        <v>27.4</v>
+      </c>
+      <c r="AB129">
+        <v>30</v>
+      </c>
+      <c r="AC129">
+        <v>200</v>
+      </c>
+      <c r="AD129">
+        <v>6.3</v>
+      </c>
+      <c r="AE129">
+        <v>92</v>
+      </c>
+      <c r="AF129">
+        <v>437</v>
+      </c>
+      <c r="AG129">
+        <v>5.52</v>
+      </c>
+      <c r="AH129">
+        <v>2.63</v>
+      </c>
+      <c r="AI129">
+        <v>124</v>
+      </c>
+      <c r="AJ129">
+        <v>114</v>
+      </c>
+      <c r="AK129">
+        <v>13.5</v>
+      </c>
+      <c r="AL129">
+        <v>38.5</v>
+      </c>
+      <c r="AM129">
+        <v>1.74</v>
+      </c>
+      <c r="AN129">
+        <v>4</v>
+      </c>
+      <c r="AO129">
+        <v>0.21610561</v>
+      </c>
+      <c r="AP129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2501775686</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>1</v>
+      </c>
+      <c r="T130">
+        <v>71</v>
+      </c>
+      <c r="U130">
+        <v>4.980000000000001E-12</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>24</v>
+      </c>
+      <c r="Y130">
+        <v>48</v>
+      </c>
+      <c r="Z130">
+        <v>30.3</v>
+      </c>
+      <c r="AA130">
+        <v>25.9</v>
+      </c>
+      <c r="AB130">
+        <v>25</v>
+      </c>
+      <c r="AC130">
+        <v>719</v>
+      </c>
+      <c r="AD130">
+        <v>9.6</v>
+      </c>
+      <c r="AE130">
+        <v>94</v>
+      </c>
+      <c r="AF130">
+        <v>178</v>
+      </c>
+      <c r="AG130">
+        <v>9.83</v>
+      </c>
+      <c r="AH130">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI130">
+        <v>141</v>
+      </c>
+      <c r="AJ130">
+        <v>102</v>
+      </c>
+      <c r="AK130">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AL130">
+        <v>46.6</v>
+      </c>
+      <c r="AM130">
+        <v>21</v>
+      </c>
+      <c r="AN130">
+        <v>247.5</v>
+      </c>
+      <c r="AO130">
+        <v>1.38</v>
+      </c>
+      <c r="AP130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2002319869</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131">
+        <v>63</v>
+      </c>
+      <c r="U131">
+        <v>3.1000000000000001E-12</v>
+      </c>
+      <c r="V131">
+        <v>2.5099999999999999E-13</v>
+      </c>
+      <c r="W131">
+        <v>5.2600000000000008E-13</v>
+      </c>
+      <c r="X131">
+        <v>11</v>
+      </c>
+      <c r="Y131">
+        <v>22</v>
+      </c>
+      <c r="Z131">
+        <v>41.7</v>
+      </c>
+      <c r="AA131">
+        <v>6.1</v>
+      </c>
+      <c r="AB131">
+        <v>17</v>
+      </c>
+      <c r="AC131">
+        <v>170</v>
+      </c>
+      <c r="AD131">
+        <v>4</v>
+      </c>
+      <c r="AE131">
+        <v>63</v>
+      </c>
+      <c r="AF131">
+        <v>349.3</v>
+      </c>
+      <c r="AG131">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="AH131">
+        <v>1.53</v>
+      </c>
+      <c r="AI131">
+        <v>133</v>
+      </c>
+      <c r="AJ131">
+        <v>270</v>
+      </c>
+      <c r="AK131">
+        <v>14.2</v>
+      </c>
+      <c r="AL131">
+        <v>42.4</v>
+      </c>
+      <c r="AM131">
+        <v>0.35</v>
+      </c>
+      <c r="AN131">
+        <v>1.6</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2002283926</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>4</v>
+      </c>
+      <c r="T132">
+        <v>85</v>
+      </c>
+      <c r="U132">
+        <v>2.0900000000000002E-12</v>
+      </c>
+      <c r="V132">
+        <v>4.3E-14</v>
+      </c>
+      <c r="W132">
+        <v>1.0199999999999999E-13</v>
+      </c>
+      <c r="X132">
+        <v>12</v>
+      </c>
+      <c r="Y132">
+        <v>10</v>
+      </c>
+      <c r="Z132">
+        <v>26.5</v>
+      </c>
+      <c r="AA132">
+        <v>6.6</v>
+      </c>
+      <c r="AB132">
+        <v>9</v>
+      </c>
+      <c r="AC132">
+        <v>210</v>
+      </c>
+      <c r="AD132">
+        <v>3.8</v>
+      </c>
+      <c r="AE132">
+        <v>49</v>
+      </c>
+      <c r="AF132">
+        <v>119.7</v>
+      </c>
+      <c r="AG132">
+        <v>11.04</v>
+      </c>
+      <c r="AH132">
+        <v>2.23</v>
+      </c>
+      <c r="AI132">
+        <v>90</v>
+      </c>
+      <c r="AJ132">
+        <v>140</v>
+      </c>
+      <c r="AK132">
+        <v>15.1</v>
+      </c>
+      <c r="AL132">
+        <v>46.4</v>
+      </c>
+      <c r="AM132">
+        <v>1.72</v>
+      </c>
+      <c r="AN132">
+        <v>54.3</v>
+      </c>
+      <c r="AO132">
+        <v>0.12</v>
+      </c>
+      <c r="AP132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2002283668</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="T133">
+        <v>65</v>
+      </c>
+      <c r="U133">
+        <v>2.2699999999999998E-12</v>
+      </c>
+      <c r="V133">
+        <v>5.5599999999999998E-14</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>65</v>
+      </c>
+      <c r="Y133">
+        <v>50</v>
+      </c>
+      <c r="Z133">
+        <v>28.8</v>
+      </c>
+      <c r="AA133">
+        <v>25</v>
+      </c>
+      <c r="AB133">
+        <v>20</v>
+      </c>
+      <c r="AC133">
+        <v>178</v>
+      </c>
+      <c r="AD133">
+        <v>7.9</v>
+      </c>
+      <c r="AE133">
+        <v>57</v>
+      </c>
+      <c r="AF133">
+        <v>258</v>
+      </c>
+      <c r="AG133">
+        <v>2.98</v>
+      </c>
+      <c r="AH133">
+        <v>0.64</v>
+      </c>
+      <c r="AI133">
+        <v>35</v>
+      </c>
+      <c r="AJ133">
+        <v>2</v>
+      </c>
+      <c r="AK133">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AL133">
+        <v>52.7</v>
+      </c>
+      <c r="AM133">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AN133">
+        <v>220.2</v>
+      </c>
+      <c r="AO133">
+        <v>0.63</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2002283420</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>1</v>
+      </c>
+      <c r="T134">
+        <v>69</v>
+      </c>
+      <c r="U134">
+        <v>3.8999999999999999E-12</v>
+      </c>
+      <c r="V134">
+        <v>2.4600000000000001E-13</v>
+      </c>
+      <c r="W134">
+        <v>4.7999999999999997E-13</v>
+      </c>
+      <c r="X134">
+        <v>21</v>
+      </c>
+      <c r="Y134">
+        <v>19</v>
+      </c>
+      <c r="Z134">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AA134">
+        <v>6.2</v>
+      </c>
+      <c r="AB134">
+        <v>19</v>
+      </c>
+      <c r="AC134">
+        <v>242</v>
+      </c>
+      <c r="AD134">
+        <v>5.5</v>
+      </c>
+      <c r="AE134">
+        <v>108</v>
+      </c>
+      <c r="AF134">
+        <v>440.3</v>
+      </c>
+      <c r="AG134">
+        <v>4.55</v>
+      </c>
+      <c r="AH134">
+        <v>1.4</v>
+      </c>
+      <c r="AI134">
+        <v>122</v>
+      </c>
+      <c r="AJ134">
+        <v>299</v>
+      </c>
+      <c r="AK134">
+        <v>14.9</v>
+      </c>
+      <c r="AL134">
+        <v>41.4</v>
+      </c>
+      <c r="AM134">
+        <v>0.5</v>
+      </c>
+      <c r="AN134">
+        <v>1.8</v>
+      </c>
+      <c r="AO134">
+        <v>0.05</v>
+      </c>
+      <c r="AP134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2002283269</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+      <c r="T135">
+        <v>46</v>
+      </c>
+      <c r="U135">
+        <v>3.1899999999999999E-12</v>
+      </c>
+      <c r="V135">
+        <v>6.0600000000000002E-14</v>
+      </c>
+      <c r="W135">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="X135">
+        <v>10</v>
+      </c>
+      <c r="Y135">
+        <v>19</v>
+      </c>
+      <c r="Z135">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AA135">
+        <v>2.8</v>
+      </c>
+      <c r="AB135">
+        <v>18</v>
+      </c>
+      <c r="AC135">
+        <v>287</v>
+      </c>
+      <c r="AD135">
+        <v>4.2</v>
+      </c>
+      <c r="AE135">
+        <v>69</v>
+      </c>
+      <c r="AF135">
+        <v>276</v>
+      </c>
+      <c r="AG135">
+        <v>3.26</v>
+      </c>
+      <c r="AH135">
+        <v>0.86</v>
+      </c>
+      <c r="AI135">
+        <v>89</v>
+      </c>
+      <c r="AJ135">
+        <v>212</v>
+      </c>
+      <c r="AK135">
+        <v>12.5</v>
+      </c>
+      <c r="AL135">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AM135">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AN135">
+        <v>5.9</v>
+      </c>
+      <c r="AO135">
+        <v>8.2521880999999991E-2</v>
+      </c>
+      <c r="AP135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2002283052</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>1</v>
+      </c>
+      <c r="T136">
+        <v>51</v>
+      </c>
+      <c r="U136">
+        <v>2.3499999999999999E-12</v>
+      </c>
+      <c r="V136">
+        <v>1.77E-13</v>
+      </c>
+      <c r="W136">
+        <v>4.2300000000000002E-13</v>
+      </c>
+      <c r="X136">
+        <v>6</v>
+      </c>
+      <c r="Y136">
+        <v>16</v>
+      </c>
+      <c r="Z136">
+        <v>41.6</v>
+      </c>
+      <c r="AA136">
+        <v>9.5</v>
+      </c>
+      <c r="AB136">
+        <v>10</v>
+      </c>
+      <c r="AC136">
+        <v>146</v>
+      </c>
+      <c r="AD136">
+        <v>4.3</v>
+      </c>
+      <c r="AE136">
+        <v>69</v>
+      </c>
+      <c r="AF136">
+        <v>225.7</v>
+      </c>
+      <c r="AG136">
+        <v>5.2</v>
+      </c>
+      <c r="AH136">
+        <v>1.75</v>
+      </c>
+      <c r="AI136">
+        <v>116</v>
+      </c>
+      <c r="AJ136">
+        <v>215</v>
+      </c>
+      <c r="AK136">
+        <v>13.3</v>
+      </c>
+      <c r="AL136">
+        <v>35.5</v>
+      </c>
+      <c r="AM136">
+        <v>0.22</v>
+      </c>
+      <c r="AN136">
+        <v>0.2</v>
+      </c>
+      <c r="AO136">
+        <v>0.04</v>
+      </c>
+      <c r="AP136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2002283017</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>1</v>
+      </c>
+      <c r="T137">
+        <v>71</v>
+      </c>
+      <c r="U137">
+        <v>3.4800000000000001E-12</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>31</v>
+      </c>
+      <c r="Y137">
+        <v>44</v>
+      </c>
+      <c r="Z137">
+        <v>28.8</v>
+      </c>
+      <c r="AA137">
+        <v>16.5</v>
+      </c>
+      <c r="AB137">
+        <v>408</v>
+      </c>
+      <c r="AC137">
+        <v>279</v>
+      </c>
+      <c r="AD137">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AE137">
+        <v>74</v>
+      </c>
+      <c r="AF137">
+        <v>260</v>
+      </c>
+      <c r="AG137">
+        <v>6.63</v>
+      </c>
+      <c r="AH137">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI137">
+        <v>104</v>
+      </c>
+      <c r="AJ137">
+        <v>181</v>
+      </c>
+      <c r="AK137">
+        <v>14</v>
+      </c>
+      <c r="AL137">
+        <v>39.5</v>
+      </c>
+      <c r="AM137">
+        <v>0.63</v>
+      </c>
+      <c r="AN137">
+        <v>54.6</v>
+      </c>
+      <c r="AO137">
+        <v>0.08</v>
+      </c>
+      <c r="AP137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2002282992</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>82</v>
+      </c>
+      <c r="U138">
+        <v>3.7100000000000001E-12</v>
+      </c>
+      <c r="V138">
+        <v>1.8599999999999999E-13</v>
+      </c>
+      <c r="W138">
+        <v>7.4599999999999995E-13</v>
+      </c>
+      <c r="X138">
+        <v>38</v>
+      </c>
+      <c r="Y138">
+        <v>31</v>
+      </c>
+      <c r="Z138">
+        <v>31.6</v>
+      </c>
+      <c r="AA138">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AB138">
+        <v>29</v>
+      </c>
+      <c r="AC138">
+        <v>358</v>
+      </c>
+      <c r="AD138">
+        <v>3.5</v>
+      </c>
+      <c r="AE138">
+        <v>52</v>
+      </c>
+      <c r="AF138">
+        <v>207.1</v>
+      </c>
+      <c r="AG138">
+        <v>8.36</v>
+      </c>
+      <c r="AH138">
+        <v>1.6</v>
+      </c>
+      <c r="AI138">
+        <v>118</v>
+      </c>
+      <c r="AJ138">
+        <v>415</v>
+      </c>
+      <c r="AK138">
+        <v>13.6</v>
+      </c>
+      <c r="AL138">
+        <v>33.9</v>
+      </c>
+      <c r="AM138">
+        <v>1.9</v>
+      </c>
+      <c r="AN138">
+        <v>3.2</v>
+      </c>
+      <c r="AO138">
+        <v>0</v>
+      </c>
+      <c r="AP138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2002282990</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>3</v>
+      </c>
+      <c r="T139">
+        <v>74</v>
+      </c>
+      <c r="U139">
+        <v>3.07E-12</v>
+      </c>
+      <c r="V139">
+        <v>1.37E-13</v>
+      </c>
+      <c r="W139">
+        <v>4.0799999999999998E-13</v>
+      </c>
+      <c r="X139">
+        <v>35</v>
+      </c>
+      <c r="Y139">
+        <v>25</v>
+      </c>
+      <c r="Z139">
+        <v>43.8</v>
+      </c>
+      <c r="AA139">
+        <v>6</v>
+      </c>
+      <c r="AB139">
+        <v>37</v>
+      </c>
+      <c r="AC139">
+        <v>239</v>
+      </c>
+      <c r="AD139">
+        <v>4.7</v>
+      </c>
+      <c r="AE139">
+        <v>42</v>
+      </c>
+      <c r="AF139">
+        <v>257.8</v>
+      </c>
+      <c r="AG139">
+        <v>5.28</v>
+      </c>
+      <c r="AH139">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AI139">
+        <v>148</v>
+      </c>
+      <c r="AJ139">
+        <v>251</v>
+      </c>
+      <c r="AK139">
+        <v>12.7</v>
+      </c>
+      <c r="AL139">
+        <v>34.6</v>
+      </c>
+      <c r="AM139">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AN139">
+        <v>4.8</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2002282923</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>70</v>
+      </c>
+      <c r="U140">
+        <v>4.4800000000000003E-12</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>45</v>
+      </c>
+      <c r="Y140">
+        <v>68</v>
+      </c>
+      <c r="Z140">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AA140">
+        <v>4</v>
+      </c>
+      <c r="AB140">
+        <v>26</v>
+      </c>
+      <c r="AC140">
+        <v>484</v>
+      </c>
+      <c r="AD140">
+        <v>6.6</v>
+      </c>
+      <c r="AE140">
+        <v>76</v>
+      </c>
+      <c r="AF140">
+        <v>348</v>
+      </c>
+      <c r="AG140">
+        <v>5.03</v>
+      </c>
+      <c r="AH140">
+        <v>1.49</v>
+      </c>
+      <c r="AI140">
+        <v>120</v>
+      </c>
+      <c r="AJ140">
+        <v>164</v>
+      </c>
+      <c r="AK140">
+        <v>13.6</v>
+      </c>
+      <c r="AL140">
+        <v>45.9</v>
+      </c>
+      <c r="AM140">
+        <v>0.6</v>
+      </c>
+      <c r="AN140">
+        <v>27.4</v>
+      </c>
+      <c r="AO140">
+        <v>0.46026378499999998</v>
+      </c>
+      <c r="AP140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2002282911</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+      <c r="T141">
+        <v>69</v>
+      </c>
+      <c r="U141">
+        <v>4.5700000000000001E-12</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>12</v>
+      </c>
+      <c r="Y141">
+        <v>25</v>
+      </c>
+      <c r="Z141">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AA141">
+        <v>2.5</v>
+      </c>
+      <c r="AB141">
+        <v>19</v>
+      </c>
+      <c r="AC141">
+        <v>606</v>
+      </c>
+      <c r="AD141">
+        <v>3.4</v>
+      </c>
+      <c r="AE141">
+        <v>54</v>
+      </c>
+      <c r="AF141">
+        <v>202</v>
+      </c>
+      <c r="AG141">
+        <v>6.07</v>
+      </c>
+      <c r="AH141">
+        <v>0.51</v>
+      </c>
+      <c r="AI141">
+        <v>120</v>
+      </c>
+      <c r="AJ141">
+        <v>248</v>
+      </c>
+      <c r="AK141">
+        <v>12.6</v>
+      </c>
+      <c r="AL141">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AM141">
+        <v>1.27</v>
+      </c>
+      <c r="AN141">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO141">
+        <v>0.36620217900000002</v>
+      </c>
+      <c r="AP141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2002282859</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>1</v>
+      </c>
+      <c r="T142">
+        <v>65</v>
+      </c>
+      <c r="U142">
+        <v>2.8500000000000002E-12</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>11</v>
+      </c>
+      <c r="Y142">
+        <v>34</v>
+      </c>
+      <c r="Z142">
+        <v>39.9</v>
+      </c>
+      <c r="AA142">
+        <v>5</v>
+      </c>
+      <c r="AB142">
+        <v>11</v>
+      </c>
+      <c r="AC142">
+        <v>316</v>
+      </c>
+      <c r="AD142">
+        <v>6.3</v>
+      </c>
+      <c r="AE142">
+        <v>59</v>
+      </c>
+      <c r="AF142">
+        <v>208</v>
+      </c>
+      <c r="AG142">
+        <v>1.5</v>
+      </c>
+      <c r="AH142">
+        <v>0.34</v>
+      </c>
+      <c r="AI142">
+        <v>99</v>
+      </c>
+      <c r="AJ142">
+        <v>75</v>
+      </c>
+      <c r="AK142">
+        <v>12.7</v>
+      </c>
+      <c r="AL142">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AM142">
+        <v>1.27</v>
+      </c>
+      <c r="AN142">
+        <v>27.4</v>
+      </c>
+      <c r="AO142">
+        <v>0.21</v>
+      </c>
+      <c r="AP142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2002282834</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>1</v>
+      </c>
+      <c r="T143">
+        <v>55</v>
+      </c>
+      <c r="U143">
+        <v>2.71E-12</v>
+      </c>
+      <c r="V143">
+        <v>1.31E-13</v>
+      </c>
+      <c r="W143">
+        <v>3.09E-13</v>
+      </c>
+      <c r="X143">
+        <v>25</v>
+      </c>
+      <c r="Y143">
+        <v>27</v>
+      </c>
+      <c r="Z143">
+        <v>47.1</v>
+      </c>
+      <c r="AA143">
+        <v>16.8</v>
+      </c>
+      <c r="AB143">
+        <v>16</v>
+      </c>
+      <c r="AC143">
+        <v>195</v>
+      </c>
+      <c r="AD143">
+        <v>2.9</v>
+      </c>
+      <c r="AE143">
+        <v>60</v>
+      </c>
+      <c r="AF143">
+        <v>257</v>
+      </c>
+      <c r="AG143">
+        <v>4.49</v>
+      </c>
+      <c r="AH143">
+        <v>0.91</v>
+      </c>
+      <c r="AI143">
+        <v>120</v>
+      </c>
+      <c r="AJ143">
+        <v>203</v>
+      </c>
+      <c r="AK143">
+        <v>13.3</v>
+      </c>
+      <c r="AL143">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AM143">
+        <v>0.45</v>
+      </c>
+      <c r="AN143">
+        <v>5.6</v>
+      </c>
+      <c r="AO143">
+        <v>0.06</v>
+      </c>
+      <c r="AP143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2002282742</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>68</v>
+      </c>
+      <c r="U144">
+        <v>3.9700000000000002E-12</v>
+      </c>
+      <c r="V144">
+        <v>6.1100000000000003E-15</v>
+      </c>
+      <c r="W144">
+        <v>5.0100000000000002E-14</v>
+      </c>
+      <c r="X144">
+        <v>132</v>
+      </c>
+      <c r="Y144">
+        <v>54</v>
+      </c>
+      <c r="Z144">
+        <v>27.1</v>
+      </c>
+      <c r="AA144">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AB144">
+        <v>119</v>
+      </c>
+      <c r="AC144">
+        <v>465</v>
+      </c>
+      <c r="AD144">
+        <v>6.5</v>
+      </c>
+      <c r="AE144">
+        <v>67</v>
+      </c>
+      <c r="AF144">
+        <v>147</v>
+      </c>
+      <c r="AG144">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="AH144">
+        <v>0.71</v>
+      </c>
+      <c r="AI144">
+        <v>106</v>
+      </c>
+      <c r="AJ144">
+        <v>292</v>
+      </c>
+      <c r="AK144">
+        <v>15.7</v>
+      </c>
+      <c r="AL144">
+        <v>45</v>
+      </c>
+      <c r="AM144">
+        <v>3.43</v>
+      </c>
+      <c r="AN144">
+        <v>173.3</v>
+      </c>
+      <c r="AO144">
+        <v>0.16</v>
+      </c>
+      <c r="AP144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2002248214</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>1</v>
+      </c>
+      <c r="T145">
+        <v>59</v>
+      </c>
+      <c r="U145">
+        <v>2.8500000000000002E-12</v>
+      </c>
+      <c r="V145">
+        <v>2.24E-13</v>
+      </c>
+      <c r="W145">
+        <v>4.500000000000001E-13</v>
+      </c>
+      <c r="X145">
+        <v>11</v>
+      </c>
+      <c r="Y145">
+        <v>12</v>
+      </c>
+      <c r="Z145">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AA145">
+        <v>7</v>
+      </c>
+      <c r="AB145">
+        <v>17</v>
+      </c>
+      <c r="AC145">
+        <v>155</v>
+      </c>
+      <c r="AD145">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE145">
+        <v>66</v>
+      </c>
+      <c r="AF145">
+        <v>329.1</v>
+      </c>
+      <c r="AG145">
+        <v>6.43</v>
+      </c>
+      <c r="AH145">
+        <v>0.66</v>
+      </c>
+      <c r="AI145">
+        <v>113</v>
+      </c>
+      <c r="AJ145">
+        <v>238</v>
+      </c>
+      <c r="AK145">
+        <v>13.4</v>
+      </c>
+      <c r="AL145">
+        <v>39.4</v>
+      </c>
+      <c r="AM145">
+        <v>0.34</v>
+      </c>
+      <c r="AN145">
+        <v>0.8</v>
+      </c>
+      <c r="AO145">
+        <v>0.04</v>
+      </c>
+      <c r="AP145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2001978386</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>4</v>
+      </c>
+      <c r="T146">
+        <v>65</v>
+      </c>
+      <c r="U146">
+        <v>2.6200000000000001E-12</v>
+      </c>
+      <c r="V146">
+        <v>1.9099999999999999E-13</v>
+      </c>
+      <c r="W146">
+        <v>7.5700000000000001E-13</v>
+      </c>
+      <c r="X146">
+        <v>11</v>
+      </c>
+      <c r="Y146">
+        <v>12</v>
+      </c>
+      <c r="Z146">
+        <v>44.1</v>
+      </c>
+      <c r="AA146">
+        <v>6.5</v>
+      </c>
+      <c r="AB146">
+        <v>23</v>
+      </c>
+      <c r="AC146">
+        <v>249</v>
+      </c>
+      <c r="AD146">
+        <v>5.2</v>
+      </c>
+      <c r="AE146">
+        <v>47</v>
+      </c>
+      <c r="AF146">
+        <v>99.4</v>
+      </c>
+      <c r="AG146">
+        <v>5.38</v>
+      </c>
+      <c r="AH146">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AI146">
+        <v>124</v>
+      </c>
+      <c r="AJ146">
+        <v>357</v>
+      </c>
+      <c r="AK146">
+        <v>13.6</v>
+      </c>
+      <c r="AL146">
+        <v>38.5</v>
+      </c>
+      <c r="AM146">
+        <v>0.3</v>
+      </c>
+      <c r="AN146">
+        <v>0.6</v>
+      </c>
+      <c r="AO146">
+        <v>0</v>
+      </c>
+      <c r="AP146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2001191839</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>1</v>
+      </c>
+      <c r="T147">
+        <v>70</v>
+      </c>
+      <c r="U147">
+        <v>3.7700000000000003E-12</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>16</v>
+      </c>
+      <c r="Y147">
+        <v>28</v>
+      </c>
+      <c r="Z147">
+        <v>41.3</v>
+      </c>
+      <c r="AA147">
+        <v>25.8</v>
+      </c>
+      <c r="AB147">
+        <v>89</v>
+      </c>
+      <c r="AC147">
+        <v>249</v>
+      </c>
+      <c r="AD147">
+        <v>6.5</v>
+      </c>
+      <c r="AE147">
+        <v>76</v>
+      </c>
+      <c r="AF147">
+        <v>484.2</v>
+      </c>
+      <c r="AG147">
+        <v>3.75</v>
+      </c>
+      <c r="AH147">
+        <v>0.76</v>
+      </c>
+      <c r="AI147">
+        <v>139</v>
+      </c>
+      <c r="AJ147">
+        <v>79</v>
+      </c>
+      <c r="AK147">
+        <v>14.7</v>
+      </c>
+      <c r="AL147">
+        <v>46.6</v>
+      </c>
+      <c r="AM147">
+        <v>0.68</v>
+      </c>
+      <c r="AN147">
+        <v>5.8</v>
+      </c>
+      <c r="AO147">
+        <v>0.06</v>
+      </c>
+      <c r="AP147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1009998687</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>1</v>
+      </c>
+      <c r="T148">
+        <v>67</v>
+      </c>
+      <c r="U148">
+        <v>2.89E-12</v>
+      </c>
+      <c r="V148">
+        <v>8.4800000000000002E-14</v>
+      </c>
+      <c r="W148">
+        <v>1.9199999999999999E-13</v>
+      </c>
+      <c r="X148">
+        <v>10</v>
+      </c>
+      <c r="Y148">
+        <v>27</v>
+      </c>
+      <c r="Z148">
+        <v>31.3</v>
+      </c>
+      <c r="AA148">
+        <v>5.5</v>
+      </c>
+      <c r="AB148">
+        <v>14</v>
+      </c>
+      <c r="AC148">
+        <v>288</v>
+      </c>
+      <c r="AD148">
+        <v>6.8</v>
+      </c>
+      <c r="AE148">
+        <v>76</v>
+      </c>
+      <c r="AF148">
+        <v>176</v>
+      </c>
+      <c r="AG148">
+        <v>8.43</v>
+      </c>
+      <c r="AH148">
+        <v>0.45</v>
+      </c>
+      <c r="AI148">
+        <v>98</v>
+      </c>
+      <c r="AJ148">
+        <v>221</v>
+      </c>
+      <c r="AK148">
+        <v>13.1</v>
+      </c>
+      <c r="AL148">
+        <v>45.8</v>
+      </c>
+      <c r="AM148">
+        <v>1.77</v>
+      </c>
+      <c r="AN148">
+        <v>79.2</v>
+      </c>
+      <c r="AO148">
+        <v>0.06</v>
+      </c>
+      <c r="AP148">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
